--- a/Code/Results/Cases/Case_4_194/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_194/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9466334133069267</v>
+        <v>0.9642150815792832</v>
       </c>
       <c r="C2">
-        <v>0.1078784042036816</v>
+        <v>0.1235905131834478</v>
       </c>
       <c r="D2">
-        <v>0.2922602147477562</v>
+        <v>0.5483649432170807</v>
       </c>
       <c r="E2">
-        <v>0.07869559262354819</v>
+        <v>0.1864854176659154</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008586353862510274</v>
+        <v>0.002592011712660325</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03511129315803441</v>
+        <v>0.07734300115510706</v>
       </c>
       <c r="K2">
-        <v>0.7236700218663259</v>
+        <v>0.4534032876824483</v>
       </c>
       <c r="L2">
-        <v>0.1862982918132303</v>
+        <v>0.3725307360031636</v>
       </c>
       <c r="M2">
-        <v>0.2179896304529585</v>
+        <v>0.296807011549717</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.769523039992094</v>
+        <v>9.087362009319634</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8317132383390629</v>
+        <v>0.9385773748042823</v>
       </c>
       <c r="C3">
-        <v>0.1062921381855553</v>
+        <v>0.1227812568374667</v>
       </c>
       <c r="D3">
-        <v>0.27643266721185</v>
+        <v>0.5469674629464976</v>
       </c>
       <c r="E3">
-        <v>0.07770347585905313</v>
+        <v>0.1869680779558625</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008634656180204121</v>
+        <v>0.002595137568200568</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03538075262700779</v>
+        <v>0.07743948547543678</v>
       </c>
       <c r="K3">
-        <v>0.6279396598035305</v>
+        <v>0.4292702986610237</v>
       </c>
       <c r="L3">
-        <v>0.174232267746433</v>
+        <v>0.3712930136328865</v>
       </c>
       <c r="M3">
-        <v>0.194883633569809</v>
+        <v>0.2923225972467556</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.706933766290604</v>
+        <v>9.108522568869432</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7618248643749155</v>
+        <v>0.9233060635167476</v>
       </c>
       <c r="C4">
-        <v>0.1053136783832329</v>
+        <v>0.1222729659786204</v>
       </c>
       <c r="D4">
-        <v>0.2670438057019311</v>
+        <v>0.546318507956002</v>
       </c>
       <c r="E4">
-        <v>0.07716799219645054</v>
+        <v>0.187315391219439</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008665304616635309</v>
+        <v>0.002597160417498293</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03555158626779154</v>
+        <v>0.07750173979297115</v>
       </c>
       <c r="K4">
-        <v>0.5694910617253015</v>
+        <v>0.4146744601719092</v>
       </c>
       <c r="L4">
-        <v>0.16701800600989</v>
+        <v>0.3706713037927472</v>
       </c>
       <c r="M4">
-        <v>0.1808864952064937</v>
+        <v>0.2897035274509356</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.674407739576338</v>
+        <v>9.124641079459025</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7334975560027885</v>
+        <v>0.9172016949162582</v>
       </c>
       <c r="C5">
-        <v>0.104913644637044</v>
+        <v>0.1220629682301499</v>
       </c>
       <c r="D5">
-        <v>0.2632966735126416</v>
+        <v>0.5461067475730061</v>
       </c>
       <c r="E5">
-        <v>0.07696778759071954</v>
+        <v>0.1874697652377222</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008678047944996848</v>
+        <v>0.002598010864801457</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03562256444407708</v>
+        <v>0.07752786834406411</v>
       </c>
       <c r="K5">
-        <v>0.5457432442738224</v>
+        <v>0.408782711452389</v>
       </c>
       <c r="L5">
-        <v>0.1641245133922027</v>
+        <v>0.3704528115507273</v>
       </c>
       <c r="M5">
-        <v>0.17522668150702</v>
+        <v>0.2886701506551965</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.6625803290124</v>
+        <v>9.131996202060265</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7288025911502984</v>
+        <v>0.9161952613106905</v>
       </c>
       <c r="C6">
-        <v>0.1048471357611902</v>
+        <v>0.1220279252984113</v>
       </c>
       <c r="D6">
-        <v>0.2626791204982482</v>
+        <v>0.5460747708522717</v>
       </c>
       <c r="E6">
-        <v>0.07693561685343298</v>
+        <v>0.1874961752959958</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008680179430507123</v>
+        <v>0.002598153660930955</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03563443281931078</v>
+        <v>0.07753225289181787</v>
       </c>
       <c r="K6">
-        <v>0.5418038391797211</v>
+        <v>0.4078077948295089</v>
       </c>
       <c r="L6">
-        <v>0.1636467821333767</v>
+        <v>0.3704186392784266</v>
       </c>
       <c r="M6">
-        <v>0.1742894364596417</v>
+        <v>0.2885006113163868</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.660700976427137</v>
+        <v>9.133265049317032</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7614422349215033</v>
+        <v>0.9232232560682689</v>
       </c>
       <c r="C7">
-        <v>0.1053082888871515</v>
+        <v>0.1222701454728217</v>
       </c>
       <c r="D7">
-        <v>0.2669929560927216</v>
+        <v>0.5463154385745668</v>
       </c>
       <c r="E7">
-        <v>0.07716521991271463</v>
+        <v>0.1873174211321622</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008665475443798698</v>
+        <v>0.002597171781042334</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03555253797856928</v>
+        <v>0.07750208909456102</v>
       </c>
       <c r="K7">
-        <v>0.5691705211553284</v>
+        <v>0.4145947740472593</v>
       </c>
       <c r="L7">
-        <v>0.1669787987623934</v>
+        <v>0.3706682158596308</v>
       </c>
       <c r="M7">
-        <v>0.1808099909613823</v>
+        <v>0.2896894534817775</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.67424252586747</v>
+        <v>9.124737087016399</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9068589933390001</v>
+        <v>0.9552778948570051</v>
       </c>
       <c r="C8">
-        <v>0.1073322802380119</v>
+        <v>0.1233138498620221</v>
       </c>
       <c r="D8">
-        <v>0.2867321071828854</v>
+        <v>0.5478397588989168</v>
       </c>
       <c r="E8">
-        <v>0.07833789764102406</v>
+        <v>0.1866412788253449</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.000860280582406171</v>
+        <v>0.002593068060996049</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03520309018261614</v>
+        <v>0.07737564482842529</v>
       </c>
       <c r="K8">
-        <v>0.6905858258145656</v>
+        <v>0.4450363886205793</v>
       </c>
       <c r="L8">
-        <v>0.1820960505123352</v>
+        <v>0.3720753291862238</v>
       </c>
       <c r="M8">
-        <v>0.2099809707906708</v>
+        <v>0.2952329678040897</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.746681318565606</v>
+        <v>9.094009799023439</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.19816681935373</v>
+        <v>1.02184940205774</v>
       </c>
       <c r="C9">
-        <v>0.1112745807051354</v>
+        <v>0.1252700286891866</v>
       </c>
       <c r="D9">
-        <v>0.3282423369904137</v>
+        <v>0.5524837845300112</v>
       </c>
       <c r="E9">
-        <v>0.08124711540386365</v>
+        <v>0.1857185579671903</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008487544028702314</v>
+        <v>0.00258583879918753</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03456016492181657</v>
+        <v>0.0771515043955695</v>
       </c>
       <c r="K9">
-        <v>0.9319174293179344</v>
+        <v>0.5064803196257515</v>
       </c>
       <c r="L9">
-        <v>0.2134037008274774</v>
+        <v>0.3759280458096441</v>
       </c>
       <c r="M9">
-        <v>0.2688712189852041</v>
+        <v>0.3071654181459316</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.93834292343098</v>
+        <v>9.058530975147846</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.417154061424895</v>
+        <v>1.073002872521869</v>
       </c>
       <c r="C10">
-        <v>0.114168500130674</v>
+        <v>0.1266521165130854</v>
       </c>
       <c r="D10">
-        <v>0.3607304751967604</v>
+        <v>0.556899789014949</v>
       </c>
       <c r="E10">
-        <v>0.08379341872291235</v>
+        <v>0.1852849962749801</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.000840717857270491</v>
+        <v>0.002581021179767422</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03411306961977978</v>
+        <v>0.07700122434405188</v>
       </c>
       <c r="K10">
-        <v>1.112130065502498</v>
+        <v>0.552676902103201</v>
       </c>
       <c r="L10">
-        <v>0.2376007838444849</v>
+        <v>0.3794210212791427</v>
       </c>
       <c r="M10">
-        <v>0.3134344539820546</v>
+        <v>0.3165745125208588</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5.113520891355677</v>
+        <v>9.047543650333893</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.518148236466033</v>
+        <v>1.096757272839852</v>
       </c>
       <c r="C11">
-        <v>0.1154879393519508</v>
+        <v>0.1272689189286993</v>
       </c>
       <c r="D11">
-        <v>0.3760101441585988</v>
+        <v>0.5591258144697235</v>
       </c>
       <c r="E11">
-        <v>0.08504951920423309</v>
+        <v>0.1851405224463285</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008371476327756497</v>
+        <v>0.002578935656736963</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03391504096294318</v>
+        <v>0.07693595783102891</v>
       </c>
       <c r="K11">
-        <v>1.194970099519708</v>
+        <v>0.5739195598364404</v>
       </c>
       <c r="L11">
-        <v>0.2489119584701598</v>
+        <v>0.3811530667619678</v>
       </c>
       <c r="M11">
-        <v>0.3340537268681203</v>
+        <v>0.320993483687424</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.201668007430214</v>
+        <v>9.045814597681272</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.556616066341775</v>
+        <v>1.105821658185562</v>
       </c>
       <c r="C12">
-        <v>0.1159883224852933</v>
+        <v>0.1275007717481529</v>
       </c>
       <c r="D12">
-        <v>0.3818741956522871</v>
+        <v>0.5599998825076824</v>
       </c>
       <c r="E12">
-        <v>0.08554003140222122</v>
+        <v>0.1850933745512187</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008358072988544523</v>
+        <v>0.002578161090319187</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03384081411366147</v>
+        <v>0.07691168647630864</v>
       </c>
       <c r="K12">
-        <v>1.22648328321651</v>
+        <v>0.5819960358697074</v>
       </c>
       <c r="L12">
-        <v>0.2532427989720816</v>
+        <v>0.3818294386897918</v>
       </c>
       <c r="M12">
-        <v>0.3419174123479394</v>
+        <v>0.3226866766057626</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.236352937912216</v>
+        <v>9.0456294310776</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.54832095843858</v>
+        <v>1.103866415702157</v>
       </c>
       <c r="C13">
-        <v>0.1158805178028643</v>
+        <v>0.1274509145044007</v>
       </c>
       <c r="D13">
-        <v>0.3806076992991052</v>
+        <v>0.5598102539277079</v>
       </c>
       <c r="E13">
-        <v>0.08543371688618251</v>
+        <v>0.1851031928038793</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008360954577611815</v>
+        <v>0.002578327233358297</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03385676641718183</v>
+        <v>0.07691689404076874</v>
       </c>
       <c r="K13">
-        <v>1.219689643442422</v>
+        <v>0.5802551899311084</v>
       </c>
       <c r="L13">
-        <v>0.2523078957615894</v>
+        <v>0.3816828602935374</v>
       </c>
       <c r="M13">
-        <v>0.3402212582117485</v>
+        <v>0.3223211374921462</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.228823355170618</v>
+        <v>9.04564843304064</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.521308373712912</v>
+        <v>1.097501623367805</v>
       </c>
       <c r="C14">
-        <v>0.1155290894417291</v>
+        <v>0.1272880280271096</v>
       </c>
       <c r="D14">
-        <v>0.3764909846468925</v>
+        <v>0.5591971014843722</v>
       </c>
       <c r="E14">
-        <v>0.08508957147338236</v>
+        <v>0.1851364921653733</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008370371335729311</v>
+        <v>0.002578871628857318</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03390891904333238</v>
+        <v>0.07693395212998055</v>
       </c>
       <c r="K14">
-        <v>1.197559714212105</v>
+        <v>0.5745833703916219</v>
       </c>
       <c r="L14">
-        <v>0.2492672832910614</v>
+        <v>0.3812083022733077</v>
       </c>
       <c r="M14">
-        <v>0.3346995282597973</v>
+        <v>0.3211323870866494</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.204494855793939</v>
+        <v>9.045789955577618</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.504792292750921</v>
+        <v>1.093611988068659</v>
       </c>
       <c r="C15">
-        <v>0.1153139355992892</v>
+        <v>0.1271880316718281</v>
       </c>
       <c r="D15">
-        <v>0.3739797175808945</v>
+        <v>0.5588255775388262</v>
       </c>
       <c r="E15">
-        <v>0.08488073152533104</v>
+        <v>0.1851578729390013</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008376154311451263</v>
+        <v>0.002579207061304046</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0339409630702856</v>
+        <v>0.07694445843131437</v>
       </c>
       <c r="K15">
-        <v>1.184023789254951</v>
+        <v>0.5711134176856376</v>
       </c>
       <c r="L15">
-        <v>0.2474111316636822</v>
+        <v>0.3809202867296904</v>
       </c>
       <c r="M15">
-        <v>0.3313247281541152</v>
+        <v>0.3204068211861468</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.189765738019901</v>
+        <v>9.045937781373709</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.410583689275228</v>
+        <v>1.071460167410891</v>
       </c>
       <c r="C16">
-        <v>0.1140823575678169</v>
+        <v>0.1266115669530876</v>
       </c>
       <c r="D16">
-        <v>0.3597424882225368</v>
+        <v>0.5567586737138157</v>
       </c>
       <c r="E16">
-        <v>0.08371336363271809</v>
+        <v>0.1852954974185685</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008409528459179758</v>
+        <v>0.00258115960094443</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0341261183683832</v>
+        <v>0.07700555183599267</v>
       </c>
       <c r="K16">
-        <v>1.106735239305124</v>
+        <v>0.5512931913167733</v>
       </c>
       <c r="L16">
-        <v>0.2368680082349073</v>
+        <v>0.3793106993429376</v>
       </c>
       <c r="M16">
-        <v>0.3120943989300642</v>
+        <v>0.3162885032630669</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.107937937508837</v>
+        <v>9.047722387729635</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.353159785941699</v>
+        <v>1.057994424259789</v>
       </c>
       <c r="C17">
-        <v>0.1133277996168331</v>
+        <v>0.1262548700770978</v>
       </c>
       <c r="D17">
-        <v>0.3511407526825394</v>
+        <v>0.5555462393815844</v>
       </c>
       <c r="E17">
-        <v>0.0830228103691546</v>
+        <v>0.185393419735977</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008430217054149466</v>
+        <v>0.002582384527988424</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03424107149858902</v>
+        <v>0.07704382261389053</v>
       </c>
       <c r="K17">
-        <v>1.059555139543789</v>
+        <v>0.5391921430339721</v>
       </c>
       <c r="L17">
-        <v>0.2304806061378173</v>
+        <v>0.37835985006069</v>
       </c>
       <c r="M17">
-        <v>0.3003900549112757</v>
+        <v>0.3137974912706483</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>5.059966837105748</v>
+        <v>9.049654126564405</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.32025891653754</v>
+        <v>1.050294914578075</v>
       </c>
       <c r="C18">
-        <v>0.1128940579448638</v>
+        <v>0.1260485860455489</v>
       </c>
       <c r="D18">
-        <v>0.3462400018902372</v>
+        <v>0.5548693260131188</v>
       </c>
       <c r="E18">
-        <v>0.08263477442394418</v>
+        <v>0.1854547091522711</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008442197631621007</v>
+        <v>0.002583099058672168</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03430769422451974</v>
+        <v>0.07706612651980826</v>
       </c>
       <c r="K18">
-        <v>1.032498107124326</v>
+        <v>0.5322533859290957</v>
       </c>
       <c r="L18">
-        <v>0.2268350883860677</v>
+        <v>0.3778264187985627</v>
       </c>
       <c r="M18">
-        <v>0.2936903434046556</v>
+        <v>0.3123777920909276</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>5.033165466977721</v>
+        <v>9.051072948460671</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.309140453968382</v>
+        <v>1.047695846657717</v>
       </c>
       <c r="C19">
-        <v>0.1127472361577162</v>
+        <v>0.1259785493136789</v>
       </c>
       <c r="D19">
-        <v>0.3445885445756147</v>
+        <v>0.5546436498061809</v>
       </c>
       <c r="E19">
-        <v>0.08250494074085069</v>
+        <v>0.1854763145608054</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.000844626816848488</v>
+        <v>0.002583342703561139</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03433033846919464</v>
+        <v>0.07707372836620063</v>
       </c>
       <c r="K19">
-        <v>1.023350175694191</v>
+        <v>0.5299077371332999</v>
       </c>
       <c r="L19">
-        <v>0.2256055346021952</v>
+        <v>0.3776481247297454</v>
       </c>
       <c r="M19">
-        <v>0.2914273207951652</v>
+        <v>0.3118993540719188</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>5.024224116744477</v>
+        <v>9.051606206878603</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.359259247713226</v>
+        <v>1.0594231571107</v>
       </c>
       <c r="C20">
-        <v>0.1134080945226188</v>
+        <v>0.1262929571561244</v>
       </c>
       <c r="D20">
-        <v>0.3520515428181596</v>
+        <v>0.5556731896984388</v>
       </c>
       <c r="E20">
-        <v>0.08309536817678875</v>
+        <v>0.185382481844222</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.000842800637820936</v>
+        <v>0.00258225309963995</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03422878236312865</v>
+        <v>0.07703971845989699</v>
       </c>
       <c r="K20">
-        <v>1.064569153734766</v>
+        <v>0.5404781035252597</v>
       </c>
       <c r="L20">
-        <v>0.2311575951903109</v>
+        <v>0.3784596759312109</v>
       </c>
       <c r="M20">
-        <v>0.3016326178083659</v>
+        <v>0.3140613124703791</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>5.064991020988543</v>
+        <v>9.049416643745502</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.529236343259072</v>
+        <v>1.099369245927875</v>
       </c>
       <c r="C21">
-        <v>0.1156322897413489</v>
+        <v>0.1273359183550511</v>
       </c>
       <c r="D21">
-        <v>0.3776979974638408</v>
+        <v>0.5593763554716418</v>
       </c>
       <c r="E21">
-        <v>0.08519024555512544</v>
+        <v>0.1851265063252612</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008367602305988296</v>
+        <v>0.002578711315416962</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03389357992781283</v>
+        <v>0.07692892972781395</v>
       </c>
       <c r="K21">
-        <v>1.204055752168415</v>
+        <v>0.5762484465764146</v>
       </c>
       <c r="L21">
-        <v>0.2501590622923544</v>
+        <v>0.3813471362547034</v>
       </c>
       <c r="M21">
-        <v>0.3363198373166512</v>
+        <v>0.3214810148548821</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.211604546883734</v>
+        <v>9.045735646537651</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.641642515212368</v>
+        <v>1.125878893237683</v>
       </c>
       <c r="C22">
-        <v>0.1170904121367613</v>
+        <v>0.1280075450996421</v>
       </c>
       <c r="D22">
-        <v>0.3949170310472425</v>
+        <v>0.561977932961824</v>
       </c>
       <c r="E22">
-        <v>0.0866463634905692</v>
+        <v>0.1850032725238933</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008328799277730924</v>
+        <v>0.002576484978746098</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03367894541039629</v>
+        <v>0.07685910811489904</v>
       </c>
       <c r="K22">
-        <v>1.296064837412132</v>
+        <v>0.5998147730867345</v>
       </c>
       <c r="L22">
-        <v>0.2628567562331199</v>
+        <v>0.3833536128851023</v>
       </c>
       <c r="M22">
-        <v>0.3593170708438578</v>
+        <v>0.3264457140017285</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.315081286618806</v>
+        <v>9.046066786659424</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.581519752442659</v>
+        <v>1.111693541849149</v>
       </c>
       <c r="C23">
-        <v>0.1163116632150007</v>
+        <v>0.1276500021313893</v>
       </c>
       <c r="D23">
-        <v>0.3856829425371444</v>
+        <v>0.5605728644097212</v>
       </c>
       <c r="E23">
-        <v>0.08586096754881822</v>
+        <v>0.1850650213617691</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008349449845500158</v>
+        <v>0.002577665149329974</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0337930962938966</v>
+        <v>0.07689613721033517</v>
       </c>
       <c r="K23">
-        <v>1.246873455562763</v>
+        <v>0.5872198750909661</v>
       </c>
       <c r="L23">
-        <v>0.2560528619161886</v>
+        <v>0.3822718272024872</v>
       </c>
       <c r="M23">
-        <v>0.3470110852739978</v>
+        <v>0.3237854337890269</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.259121847803272</v>
+        <v>9.045639793455052</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.356501331313524</v>
+        <v>1.058777095731472</v>
       </c>
       <c r="C24">
-        <v>0.1133717930203417</v>
+        <v>0.1262757417695326</v>
       </c>
       <c r="D24">
-        <v>0.35163963643204</v>
+        <v>0.555615732746233</v>
       </c>
       <c r="E24">
-        <v>0.08306253690455634</v>
+        <v>0.1853874113120213</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008429005555208603</v>
+        <v>0.002582312486344181</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03423433661538056</v>
+        <v>0.07704157300878967</v>
       </c>
       <c r="K24">
-        <v>1.062302109345666</v>
+        <v>0.5398966637667115</v>
       </c>
       <c r="L24">
-        <v>0.2308514456105826</v>
+        <v>0.3784145034553319</v>
       </c>
       <c r="M24">
-        <v>0.301070764371751</v>
+        <v>0.3139420002198321</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>5.062717171279985</v>
+        <v>9.049523049512715</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.1185819875638</v>
+        <v>1.003444661546382</v>
       </c>
       <c r="C25">
-        <v>0.1102096010883926</v>
+        <v>0.1247505149092873</v>
       </c>
       <c r="D25">
-        <v>0.3166847577258949</v>
+        <v>0.5510507876538782</v>
       </c>
       <c r="E25">
-        <v>0.08039113767240202</v>
+        <v>0.1859251627373357</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008517941721623599</v>
+        <v>0.002587707442600854</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03472961720993872</v>
+        <v>0.07720960342261973</v>
       </c>
       <c r="K25">
-        <v>0.8661920766526805</v>
+        <v>0.4896722105652316</v>
       </c>
       <c r="L25">
-        <v>0.2047381545291103</v>
+        <v>0.3747691630352818</v>
       </c>
       <c r="M25">
-        <v>0.2527327504855315</v>
+        <v>0.3038242253445524</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.880774662344805</v>
+        <v>9.065479051996135</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_194/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_194/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9642150815792832</v>
+        <v>0.9466334133068131</v>
       </c>
       <c r="C2">
-        <v>0.1235905131834478</v>
+        <v>0.1078784042036958</v>
       </c>
       <c r="D2">
-        <v>0.5483649432170807</v>
+        <v>0.2922602147477562</v>
       </c>
       <c r="E2">
-        <v>0.1864854176659154</v>
+        <v>0.07869559262354109</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002592011712660325</v>
+        <v>0.0008586353862205403</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07734300115510706</v>
+        <v>0.03511129315797401</v>
       </c>
       <c r="K2">
-        <v>0.4534032876824483</v>
+        <v>0.7236700218663259</v>
       </c>
       <c r="L2">
-        <v>0.3725307360031636</v>
+        <v>0.1862982918132161</v>
       </c>
       <c r="M2">
-        <v>0.296807011549717</v>
+        <v>0.2179896304529549</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>9.087362009319634</v>
+        <v>4.769523039992038</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9385773748042823</v>
+        <v>0.8317132383392618</v>
       </c>
       <c r="C3">
-        <v>0.1227812568374667</v>
+        <v>0.1062921381858182</v>
       </c>
       <c r="D3">
-        <v>0.5469674629464976</v>
+        <v>0.2764326672119779</v>
       </c>
       <c r="E3">
-        <v>0.1869680779558625</v>
+        <v>0.07770347585905668</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002595137568200568</v>
+        <v>0.0008634656179898151</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07743948547543678</v>
+        <v>0.0353807526270602</v>
       </c>
       <c r="K3">
-        <v>0.4292702986610237</v>
+        <v>0.6279396598035589</v>
       </c>
       <c r="L3">
-        <v>0.3712930136328865</v>
+        <v>0.1742322677464401</v>
       </c>
       <c r="M3">
-        <v>0.2923225972467556</v>
+        <v>0.194883633569809</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>9.108522568869432</v>
+        <v>4.706933766290547</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9233060635167476</v>
+        <v>0.7618248643749439</v>
       </c>
       <c r="C4">
-        <v>0.1222729659786204</v>
+        <v>0.1053136783836095</v>
       </c>
       <c r="D4">
-        <v>0.546318507956002</v>
+        <v>0.2670438057020164</v>
       </c>
       <c r="E4">
-        <v>0.187315391219439</v>
+        <v>0.07716799219645232</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002597160417498293</v>
+        <v>0.0008665304616948972</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07750173979297115</v>
+        <v>0.0355515862678395</v>
       </c>
       <c r="K4">
-        <v>0.4146744601719092</v>
+        <v>0.5694910617253015</v>
       </c>
       <c r="L4">
-        <v>0.3706713037927472</v>
+        <v>0.1670180060098971</v>
       </c>
       <c r="M4">
-        <v>0.2897035274509356</v>
+        <v>0.1808864952064795</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>9.124641079459025</v>
+        <v>4.674407739576338</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9172016949162582</v>
+        <v>0.7334975560028738</v>
       </c>
       <c r="C5">
-        <v>0.1220629682301499</v>
+        <v>0.1049136446370333</v>
       </c>
       <c r="D5">
-        <v>0.5461067475730061</v>
+        <v>0.2632966735124995</v>
       </c>
       <c r="E5">
-        <v>0.1874697652377222</v>
+        <v>0.0769677875907302</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002598010864801457</v>
+        <v>0.0008678047944668287</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07752786834406411</v>
+        <v>0.03562256444407885</v>
       </c>
       <c r="K5">
-        <v>0.408782711452389</v>
+        <v>0.5457432442738934</v>
       </c>
       <c r="L5">
-        <v>0.3704528115507273</v>
+        <v>0.1641245133923164</v>
       </c>
       <c r="M5">
-        <v>0.2886701506551965</v>
+        <v>0.17522668150702</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>9.131996202060265</v>
+        <v>4.6625803290124</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9161952613106905</v>
+        <v>0.7288025911504121</v>
       </c>
       <c r="C6">
-        <v>0.1220279252984113</v>
+        <v>0.104847135761446</v>
       </c>
       <c r="D6">
-        <v>0.5460747708522717</v>
+        <v>0.2626791204980634</v>
       </c>
       <c r="E6">
-        <v>0.1874961752959958</v>
+        <v>0.07693561685347028</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002598153660930955</v>
+        <v>0.0008680179430823326</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07753225289181787</v>
+        <v>0.03563443281936274</v>
       </c>
       <c r="K6">
-        <v>0.4078077948295089</v>
+        <v>0.541803839179579</v>
       </c>
       <c r="L6">
-        <v>0.3704186392784266</v>
+        <v>0.1636467821333554</v>
       </c>
       <c r="M6">
-        <v>0.2885006113163868</v>
+        <v>0.1742894364596452</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>9.133265049317032</v>
+        <v>4.660700976427052</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9232232560682689</v>
+        <v>0.761442234921617</v>
       </c>
       <c r="C7">
-        <v>0.1222701454728217</v>
+        <v>0.1053082888877803</v>
       </c>
       <c r="D7">
-        <v>0.5463154385745668</v>
+        <v>0.2669929560926221</v>
       </c>
       <c r="E7">
-        <v>0.1873174211321622</v>
+        <v>0.07716521991269509</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002597171781042334</v>
+        <v>0.0008665475443526661</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07750208909456102</v>
+        <v>0.03555253797851377</v>
       </c>
       <c r="K7">
-        <v>0.4145947740472593</v>
+        <v>0.5691705211553568</v>
       </c>
       <c r="L7">
-        <v>0.3706682158596308</v>
+        <v>0.1669787987623508</v>
       </c>
       <c r="M7">
-        <v>0.2896894534817775</v>
+        <v>0.1808099909613858</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>9.124737087016399</v>
+        <v>4.67424252586747</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9552778948570051</v>
+        <v>0.9068589933389717</v>
       </c>
       <c r="C8">
-        <v>0.1233138498620221</v>
+        <v>0.107332280237884</v>
       </c>
       <c r="D8">
-        <v>0.5478397588989168</v>
+        <v>0.2867321071828997</v>
       </c>
       <c r="E8">
-        <v>0.1866412788253449</v>
+        <v>0.07833789764100452</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002593068060996049</v>
+        <v>0.0008602805824697868</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07737564482842529</v>
+        <v>0.03520309018265788</v>
       </c>
       <c r="K8">
-        <v>0.4450363886205793</v>
+        <v>0.6905858258146367</v>
       </c>
       <c r="L8">
-        <v>0.3720753291862238</v>
+        <v>0.18209605051225</v>
       </c>
       <c r="M8">
-        <v>0.2952329678040897</v>
+        <v>0.2099809707906459</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>9.094009799023439</v>
+        <v>4.74668131856555</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02184940205774</v>
+        <v>1.198166819353702</v>
       </c>
       <c r="C9">
-        <v>0.1252700286891866</v>
+        <v>0.1112745807052846</v>
       </c>
       <c r="D9">
-        <v>0.5524837845300112</v>
+        <v>0.3282423369904848</v>
       </c>
       <c r="E9">
-        <v>0.1857185579671903</v>
+        <v>0.08124711540388496</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.00258583879918753</v>
+        <v>0.0008487544028716739</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0771515043955695</v>
+        <v>0.03456016492177838</v>
       </c>
       <c r="K9">
-        <v>0.5064803196257515</v>
+        <v>0.931917429317906</v>
       </c>
       <c r="L9">
-        <v>0.3759280458096441</v>
+        <v>0.2134037008274419</v>
       </c>
       <c r="M9">
-        <v>0.3071654181459316</v>
+        <v>0.2688712189851898</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>9.058530975147846</v>
+        <v>4.938342923431009</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.073002872521869</v>
+        <v>1.417154061424924</v>
       </c>
       <c r="C10">
-        <v>0.1266521165130854</v>
+        <v>0.1141685001308446</v>
       </c>
       <c r="D10">
-        <v>0.556899789014949</v>
+        <v>0.3607304751968456</v>
       </c>
       <c r="E10">
-        <v>0.1852849962749801</v>
+        <v>0.08379341872289814</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002581021179767422</v>
+        <v>0.0008407178573401941</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07700122434405188</v>
+        <v>0.03411306961985172</v>
       </c>
       <c r="K10">
-        <v>0.552676902103201</v>
+        <v>1.11213006550247</v>
       </c>
       <c r="L10">
-        <v>0.3794210212791427</v>
+        <v>0.2376007838444849</v>
       </c>
       <c r="M10">
-        <v>0.3165745125208588</v>
+        <v>0.3134344539820617</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>9.047543650333893</v>
+        <v>5.113520891355648</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.096757272839852</v>
+        <v>1.518148236466004</v>
       </c>
       <c r="C11">
-        <v>0.1272689189286993</v>
+        <v>0.1154879393519579</v>
       </c>
       <c r="D11">
-        <v>0.5591258144697235</v>
+        <v>0.3760101441583856</v>
       </c>
       <c r="E11">
-        <v>0.1851405224463285</v>
+        <v>0.0850495192042402</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002578935656736963</v>
+        <v>0.0008371476327774221</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07693595783102891</v>
+        <v>0.03391504096295339</v>
       </c>
       <c r="K11">
-        <v>0.5739195598364404</v>
+        <v>1.194970099519594</v>
       </c>
       <c r="L11">
-        <v>0.3811530667619678</v>
+        <v>0.2489119584701029</v>
       </c>
       <c r="M11">
-        <v>0.320993483687424</v>
+        <v>0.3340537268681203</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>9.045814597681272</v>
+        <v>5.201668007430214</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.105821658185562</v>
+        <v>1.556616066341746</v>
       </c>
       <c r="C12">
-        <v>0.1275007717481529</v>
+        <v>0.1159883224853289</v>
       </c>
       <c r="D12">
-        <v>0.5599998825076824</v>
+        <v>0.3818741956519744</v>
       </c>
       <c r="E12">
-        <v>0.1850933745512187</v>
+        <v>0.0855400314022603</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002578161090319187</v>
+        <v>0.0008358072988230996</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07691168647630864</v>
+        <v>0.03384081411367124</v>
       </c>
       <c r="K12">
-        <v>0.5819960358697074</v>
+        <v>1.226483283216623</v>
       </c>
       <c r="L12">
-        <v>0.3818294386897918</v>
+        <v>0.2532427989722095</v>
       </c>
       <c r="M12">
-        <v>0.3226866766057626</v>
+        <v>0.3419174123479394</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>9.0456294310776</v>
+        <v>5.236352937912216</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.103866415702157</v>
+        <v>1.548320958438751</v>
       </c>
       <c r="C13">
-        <v>0.1274509145044007</v>
+        <v>0.1158805178028715</v>
       </c>
       <c r="D13">
-        <v>0.5598102539277079</v>
+        <v>0.3806076992991052</v>
       </c>
       <c r="E13">
-        <v>0.1851031928038793</v>
+        <v>0.08543371688619317</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002578327233358297</v>
+        <v>0.0008360954577728654</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07691689404076874</v>
+        <v>0.03385676641718982</v>
       </c>
       <c r="K13">
-        <v>0.5802551899311084</v>
+        <v>1.219689643442479</v>
       </c>
       <c r="L13">
-        <v>0.3816828602935374</v>
+        <v>0.2523078957615894</v>
       </c>
       <c r="M13">
-        <v>0.3223211374921462</v>
+        <v>0.3402212582117485</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>9.04564843304064</v>
+        <v>5.228823355170562</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.097501623367805</v>
+        <v>1.521308373712742</v>
       </c>
       <c r="C14">
-        <v>0.1272880280271096</v>
+        <v>0.1155290894417362</v>
       </c>
       <c r="D14">
-        <v>0.5591971014843722</v>
+        <v>0.3764909846468925</v>
       </c>
       <c r="E14">
-        <v>0.1851364921653733</v>
+        <v>0.08508957147334684</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002578871628857318</v>
+        <v>0.0008370371336043148</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07693395212998055</v>
+        <v>0.03390891904335414</v>
       </c>
       <c r="K14">
-        <v>0.5745833703916219</v>
+        <v>1.197559714212161</v>
       </c>
       <c r="L14">
-        <v>0.3812083022733077</v>
+        <v>0.2492672832910756</v>
       </c>
       <c r="M14">
-        <v>0.3211323870866494</v>
+        <v>0.3346995282597689</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.045789955577618</v>
+        <v>5.204494855793939</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.093611988068659</v>
+        <v>1.504792292750949</v>
       </c>
       <c r="C15">
-        <v>0.1271880316718281</v>
+        <v>0.1153139355995876</v>
       </c>
       <c r="D15">
-        <v>0.5588255775388262</v>
+        <v>0.3739797175810935</v>
       </c>
       <c r="E15">
-        <v>0.1851578729390013</v>
+        <v>0.08488073152531683</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002579207061304046</v>
+        <v>0.0008376154311135701</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07694445843131437</v>
+        <v>0.03394096307021144</v>
       </c>
       <c r="K15">
-        <v>0.5711134176856376</v>
+        <v>1.184023789254752</v>
       </c>
       <c r="L15">
-        <v>0.3809202867296904</v>
+        <v>0.2474111316637675</v>
       </c>
       <c r="M15">
-        <v>0.3204068211861468</v>
+        <v>0.3313247281541152</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.045937781373709</v>
+        <v>5.189765738019787</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.071460167410891</v>
+        <v>1.410583689275285</v>
       </c>
       <c r="C16">
-        <v>0.1266115669530876</v>
+        <v>0.1140823575676677</v>
       </c>
       <c r="D16">
-        <v>0.5567586737138157</v>
+        <v>0.359742488222409</v>
       </c>
       <c r="E16">
-        <v>0.1852954974185685</v>
+        <v>0.08371336363272874</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.00258115960094443</v>
+        <v>0.0008409528459171318</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07700555183599267</v>
+        <v>0.03412611836837076</v>
       </c>
       <c r="K16">
-        <v>0.5512931913167733</v>
+        <v>1.106735239305124</v>
       </c>
       <c r="L16">
-        <v>0.3793106993429376</v>
+        <v>0.2368680082349357</v>
       </c>
       <c r="M16">
-        <v>0.3162885032630669</v>
+        <v>0.3120943989300784</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.047722387729635</v>
+        <v>5.107937937508808</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.057994424259789</v>
+        <v>1.353159785941671</v>
       </c>
       <c r="C17">
-        <v>0.1262548700770978</v>
+        <v>0.1133277996168189</v>
       </c>
       <c r="D17">
-        <v>0.5555462393815844</v>
+        <v>0.3511407526824399</v>
       </c>
       <c r="E17">
-        <v>0.185393419735977</v>
+        <v>0.08302281036916526</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002582384527988424</v>
+        <v>0.0008430217054053822</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07704382261389053</v>
+        <v>0.03424107149855349</v>
       </c>
       <c r="K17">
-        <v>0.5391921430339721</v>
+        <v>1.059555139543818</v>
       </c>
       <c r="L17">
-        <v>0.37835985006069</v>
+        <v>0.2304806061377604</v>
       </c>
       <c r="M17">
-        <v>0.3137974912706483</v>
+        <v>0.3003900549112828</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.049654126564405</v>
+        <v>5.059966837105804</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.050294914578075</v>
+        <v>1.320258916537455</v>
       </c>
       <c r="C18">
-        <v>0.1260485860455489</v>
+        <v>0.1128940579450131</v>
       </c>
       <c r="D18">
-        <v>0.5548693260131188</v>
+        <v>0.3462400018902514</v>
       </c>
       <c r="E18">
-        <v>0.1854547091522711</v>
+        <v>0.08263477442396905</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002583099058672168</v>
+        <v>0.0008442197631235366</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07706612651980826</v>
+        <v>0.03430769422451529</v>
       </c>
       <c r="K18">
-        <v>0.5322533859290957</v>
+        <v>1.032498107124326</v>
       </c>
       <c r="L18">
-        <v>0.3778264187985627</v>
+        <v>0.2268350883861245</v>
       </c>
       <c r="M18">
-        <v>0.3123777920909276</v>
+        <v>0.2936903434046556</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>9.051072948460671</v>
+        <v>5.033165466977806</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.047695846657717</v>
+        <v>1.309140453968297</v>
       </c>
       <c r="C19">
-        <v>0.1259785493136789</v>
+        <v>0.1127472361577091</v>
       </c>
       <c r="D19">
-        <v>0.5546436498061809</v>
+        <v>0.3445885445755437</v>
       </c>
       <c r="E19">
-        <v>0.1854763145608054</v>
+        <v>0.08250494074085069</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002583342703561139</v>
+        <v>0.0008446268168791506</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07707372836620063</v>
+        <v>0.03433033846925237</v>
       </c>
       <c r="K19">
-        <v>0.5299077371332999</v>
+        <v>1.023350175694105</v>
       </c>
       <c r="L19">
-        <v>0.3776481247297454</v>
+        <v>0.2256055346022663</v>
       </c>
       <c r="M19">
-        <v>0.3118993540719188</v>
+        <v>0.2914273207951581</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>9.051606206878603</v>
+        <v>5.024224116744307</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.0594231571107</v>
+        <v>1.359259247713254</v>
       </c>
       <c r="C20">
-        <v>0.1262929571561244</v>
+        <v>0.1134080945226117</v>
       </c>
       <c r="D20">
-        <v>0.5556731896984388</v>
+        <v>0.352051542818046</v>
       </c>
       <c r="E20">
-        <v>0.185382481844222</v>
+        <v>0.0830953681767852</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.00258225309963995</v>
+        <v>0.0008428006378497639</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07703971845989699</v>
+        <v>0.03422878236311178</v>
       </c>
       <c r="K20">
-        <v>0.5404781035252597</v>
+        <v>1.064569153734709</v>
       </c>
       <c r="L20">
-        <v>0.3784596759312109</v>
+        <v>0.2311575951904246</v>
       </c>
       <c r="M20">
-        <v>0.3140613124703791</v>
+        <v>0.3016326178083588</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>9.049416643745502</v>
+        <v>5.064991020988657</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.099369245927875</v>
+        <v>1.529236343258901</v>
       </c>
       <c r="C21">
-        <v>0.1273359183550511</v>
+        <v>0.1156322897411783</v>
       </c>
       <c r="D21">
-        <v>0.5593763554716418</v>
+        <v>0.3776979974637982</v>
       </c>
       <c r="E21">
-        <v>0.1851265063252612</v>
+        <v>0.08519024555512189</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002578711315416962</v>
+        <v>0.00083676023052697</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07692892972781395</v>
+        <v>0.03389357992780262</v>
       </c>
       <c r="K21">
-        <v>0.5762484465764146</v>
+        <v>1.204055752168415</v>
       </c>
       <c r="L21">
-        <v>0.3813471362547034</v>
+        <v>0.2501590622923544</v>
       </c>
       <c r="M21">
-        <v>0.3214810148548821</v>
+        <v>0.3363198373166654</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>9.045735646537651</v>
+        <v>5.211604546883791</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.125878893237683</v>
+        <v>1.641642515212169</v>
       </c>
       <c r="C22">
-        <v>0.1280075450996421</v>
+        <v>0.1170904121364842</v>
       </c>
       <c r="D22">
-        <v>0.561977932961824</v>
+        <v>0.3949170310472283</v>
       </c>
       <c r="E22">
-        <v>0.1850032725238933</v>
+        <v>0.08664636349059052</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002576484978746098</v>
+        <v>0.0008328799277317427</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07685910811489904</v>
+        <v>0.03367894541027283</v>
       </c>
       <c r="K22">
-        <v>0.5998147730867345</v>
+        <v>1.296064837412189</v>
       </c>
       <c r="L22">
-        <v>0.3833536128851023</v>
+        <v>0.2628567562330204</v>
       </c>
       <c r="M22">
-        <v>0.3264457140017285</v>
+        <v>0.3593170708438862</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>9.046066786659424</v>
+        <v>5.315081286618806</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.111693541849149</v>
+        <v>1.581519752442773</v>
       </c>
       <c r="C23">
-        <v>0.1276500021313893</v>
+        <v>0.1163116632149226</v>
       </c>
       <c r="D23">
-        <v>0.5605728644097212</v>
+        <v>0.3856829425374571</v>
       </c>
       <c r="E23">
-        <v>0.1850650213617691</v>
+        <v>0.08586096754882178</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002577665149329974</v>
+        <v>0.0008349449845486096</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07689613721033517</v>
+        <v>0.03379309629388327</v>
       </c>
       <c r="K23">
-        <v>0.5872198750909661</v>
+        <v>1.24687345556265</v>
       </c>
       <c r="L23">
-        <v>0.3822718272024872</v>
+        <v>0.2560528619161317</v>
       </c>
       <c r="M23">
-        <v>0.3237854337890269</v>
+        <v>0.347011085274012</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>9.045639793455052</v>
+        <v>5.259121847803272</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.058777095731472</v>
+        <v>1.356501331313524</v>
       </c>
       <c r="C24">
-        <v>0.1262757417695326</v>
+        <v>0.1133717930202209</v>
       </c>
       <c r="D24">
-        <v>0.555615732746233</v>
+        <v>0.3516396364318979</v>
       </c>
       <c r="E24">
-        <v>0.1853874113120213</v>
+        <v>0.08306253690452081</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002582312486344181</v>
+        <v>0.0008429005555498355</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07704157300878967</v>
+        <v>0.03423433661537079</v>
       </c>
       <c r="K24">
-        <v>0.5398966637667115</v>
+        <v>1.062302109345637</v>
       </c>
       <c r="L24">
-        <v>0.3784145034553319</v>
+        <v>0.2308514456106394</v>
       </c>
       <c r="M24">
-        <v>0.3139420002198321</v>
+        <v>0.3010707643717581</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>9.049523049512715</v>
+        <v>5.062717171280013</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.003444661546382</v>
+        <v>1.118581987564028</v>
       </c>
       <c r="C25">
-        <v>0.1247505149092873</v>
+        <v>0.1102096010886484</v>
       </c>
       <c r="D25">
-        <v>0.5510507876538782</v>
+        <v>0.3166847577258949</v>
       </c>
       <c r="E25">
-        <v>0.1859251627373357</v>
+        <v>0.08039113767241446</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002587707442600854</v>
+        <v>0.0008517941721263892</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07720960342261973</v>
+        <v>0.0347296172098881</v>
       </c>
       <c r="K25">
-        <v>0.4896722105652316</v>
+        <v>0.8661920766527089</v>
       </c>
       <c r="L25">
-        <v>0.3747691630352818</v>
+        <v>0.2047381545291742</v>
       </c>
       <c r="M25">
-        <v>0.3038242253445524</v>
+        <v>0.2527327504855457</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>9.065479051996135</v>
+        <v>4.880774662344805</v>
       </c>
     </row>
   </sheetData>
